--- a/biology/Zoologie/Anolis_hendersoni/Anolis_hendersoni.xlsx
+++ b/biology/Zoologie/Anolis_hendersoni/Anolis_hendersoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis hendersoni est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis hendersoni est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud d'Haïti[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud d'Haïti.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (10 avril 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (10 avril 2013) :
 Anolis hendersoni hendersoni Cochran, 1923
 Anolis hendersoni ravidormitans Schwartz, 1978</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Brooks Henderson, Jr. (1870–1923)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Brooks Henderson, Jr. (1870–1923).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cochran, 1923 : A new Anolis from Haiti. Journal of The Washington Academy of Sciences, vol. 13, p. 225-226 (texte intégral).
 Schwartz, 1978 : The Hispaniolan Anolis (Reptilia, Lacertilia, Iguanidae) of the hendersoni complex. Journal of Herpetology, vol. 12, no 3, p. 355-370.</t>
